--- a/Test c#/PastWOs.xlsx
+++ b/Test c#/PastWOs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8760" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Senvion" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="2">
   <si>
     <t>WorkOrderID</t>
+  </si>
+  <si>
+    <t>MpulseID</t>
   </si>
 </sst>
 </file>
@@ -381,15 +384,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -460,7 +468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
